--- a/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 12,64</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,36</t>
+          <t>0; 12,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 25,97</t>
+          <t>0,0; 27,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,55; 51,67</t>
+          <t>0,0; 57,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,89</t>
+          <t>0,0; 22,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 7,94</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,03; 26,24</t>
+          <t>0,0; 34,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,9; 45,7</t>
+          <t>0,0; 41,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,93</t>
+          <t>0,0; 14,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,91</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,28</t>
+          <t>0,0; 21,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,83; 47,53</t>
+          <t>3,55; 32,68</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>41,82%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,94</t>
+          <t>4,23; 12,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 16,65</t>
+          <t>3,45; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 23,66</t>
+          <t>13,48; 25,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 39,07</t>
+          <t>37,55; 51,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,27</t>
+          <t>4,61; 12,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,86</t>
+          <t>1,71; 7,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,77; 28,07</t>
+          <t>14,03; 26,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,53; 42,81</t>
+          <t>29,9; 45,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,25</t>
+          <t>5,34; 10,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,32</t>
+          <t>3,13; 7,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,34</t>
+          <t>15,63; 24,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,91; 38,41</t>
+          <t>36,83; 47,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>21,14%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>3,73; 12,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,76; 7,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,52</t>
+          <t>13,84; 29,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,38</t>
+          <t>14,38; 33,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,54</t>
+          <t>2,71; 11,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>2,44; 11,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,17</t>
+          <t>10,94; 24,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,23</t>
+          <t>13,31; 28,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,05</t>
+          <t>4,17; 10,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>2,17; 7,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,23</t>
+          <t>14,37; 24,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 32,68</t>
+          <t>15,58; 28,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>32,32%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,53</t>
+          <t>3,55; 12,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,66</t>
+          <t>5,5; 16,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 29,34</t>
+          <t>10,49; 23,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 33,5</t>
+          <t>22,49; 39,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,52</t>
+          <t>3,89; 13,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 11,71</t>
+          <t>4,04; 14,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 24,67</t>
+          <t>14,77; 28,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,31; 28,33</t>
+          <t>26,53; 42,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,14</t>
+          <t>4,72; 11,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,84</t>
+          <t>6,11; 13,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,68</t>
+          <t>14,32; 23,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 28,05</t>
+          <t>26,91; 38,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,52</t>
+          <t>0,0; 27,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,54</t>
+          <t>0,0; 23,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,17</t>
+          <t>0,0; 33,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,05</t>
+          <t>0,0; 14,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,23</t>
+          <t>0,0; 21,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 11,66</t>
+          <t>2,06; 11,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,94</t>
+          <t>2,19; 12,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 36,62</t>
+          <t>16,55; 35,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,57; 45,53</t>
+          <t>22,67; 45,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 13,83</t>
+          <t>2,51; 13,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,84</t>
+          <t>2,29; 13,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 28,9</t>
+          <t>11,78; 29,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,33; 47,28</t>
+          <t>25,95; 47,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,52</t>
+          <t>3,26; 10,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,52</t>
+          <t>3,11; 10,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 29,5</t>
+          <t>16,6; 29,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,12; 42,55</t>
+          <t>26,33; 42,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 12,64</t>
+          <t>4,28; 12,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,36</t>
+          <t>3,35; 10,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 25,97</t>
+          <t>13,64; 26,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,55; 51,67</t>
+          <t>37,94; 51,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,89</t>
+          <t>4,7; 13,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 7,94</t>
+          <t>1,72; 7,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 26,24</t>
+          <t>13,65; 25,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 45,7</t>
+          <t>30,15; 46,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,93</t>
+          <t>5,38; 11,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,91</t>
+          <t>3,14; 8,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,28</t>
+          <t>15,68; 24,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,83; 47,53</t>
+          <t>36,1; 46,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,53</t>
+          <t>3,7; 12,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,66</t>
+          <t>0,75; 7,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 29,34</t>
+          <t>14,57; 29,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 33,5</t>
+          <t>14,84; 33,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,52</t>
+          <t>2,93; 11,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 11,71</t>
+          <t>2,48; 11,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 24,67</t>
+          <t>11,25; 25,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 28,33</t>
+          <t>14,21; 28,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,14</t>
+          <t>4,04; 10,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,84</t>
+          <t>1,99; 7,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,68</t>
+          <t>14,37; 24,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 28,05</t>
+          <t>16,15; 27,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,94</t>
+          <t>3,12; 13,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 16,65</t>
+          <t>5,82; 16,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 23,66</t>
+          <t>11,29; 22,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,49; 39,07</t>
+          <t>22,89; 39,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,27</t>
+          <t>3,82; 13,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,86</t>
+          <t>4,12; 14,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 28,07</t>
+          <t>14,66; 27,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,53; 42,81</t>
+          <t>26,76; 43,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,25</t>
+          <t>4,58; 11,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,32</t>
+          <t>6,19; 13,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,34</t>
+          <t>14,36; 23,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,91; 38,41</t>
+          <t>26,77; 38,18</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,18</t>
+          <t>4,74; 8,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,85</t>
+          <t>4,69; 8,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,03</t>
+          <t>16,21; 23,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,52; 37,79</t>
+          <t>29,47; 38,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,96</t>
+          <t>5,35; 9,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,09</t>
+          <t>3,96; 8,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 22,53</t>
+          <t>15,91; 22,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,13; 35,57</t>
+          <t>27,38; 36,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,89</t>
+          <t>5,65; 8,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,74</t>
+          <t>4,82; 7,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 21,65</t>
+          <t>16,84; 21,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,73; 35,74</t>
+          <t>29,89; 36,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,27</t>
+          <t>0,0; 26,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,38</t>
+          <t>0,0; 56,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,02</t>
+          <t>0,0; 33,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,34</t>
+          <t>0,0; 30,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,23</t>
+          <t>0,0; 33,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,2</t>
+          <t>0,0; 14,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,19 +774,19 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,5</t>
+          <t>0,0; 23,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 32,68</t>
+          <t>3,46; 35,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,53</t>
+          <t>1,91; 11,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,89</t>
+          <t>3,03; 12,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 35,91</t>
+          <t>16,91; 36,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,67; 45,37</t>
+          <t>22,59; 45,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 13,62</t>
+          <t>3,3; 13,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 13,02</t>
+          <t>2,26; 13,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 29,51</t>
+          <t>11,01; 29,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,95; 47,75</t>
+          <t>25,5; 47,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,4</t>
+          <t>3,13; 9,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,5</t>
+          <t>3,3; 10,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 29,61</t>
+          <t>17,08; 28,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,33; 42,94</t>
+          <t>26,99; 42,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,54</t>
+          <t>4,2; 13,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,29</t>
+          <t>3,45; 10,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,64; 26,3</t>
+          <t>13,79; 26,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,94; 51,38</t>
+          <t>37,74; 52,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 13,13</t>
+          <t>4,72; 12,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,87</t>
+          <t>1,69; 7,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 25,93</t>
+          <t>14,9; 27,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 46,07</t>
+          <t>30,41; 45,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,09</t>
+          <t>5,58; 11,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,08</t>
+          <t>3,24; 7,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,71</t>
+          <t>15,49; 24,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,1; 46,47</t>
+          <t>36,45; 46,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,99</t>
+          <t>3,39; 12,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,66</t>
+          <t>0,76; 7,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 29,62</t>
+          <t>13,22; 29,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 33,62</t>
+          <t>13,72; 32,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,74</t>
+          <t>2,99; 12,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 11,54</t>
+          <t>2,56; 12,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 25,14</t>
+          <t>11,29; 25,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 28,51</t>
+          <t>13,4; 28,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,78</t>
+          <t>4,28; 10,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,71</t>
+          <t>2,2; 7,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,8</t>
+          <t>14,92; 25,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 27,48</t>
+          <t>15,64; 27,99</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 13,05</t>
+          <t>3,06; 12,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 16,3</t>
+          <t>5,71; 17,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,29; 22,59</t>
+          <t>11,62; 23,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 39,59</t>
+          <t>23,08; 39,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 13,64</t>
+          <t>3,81; 13,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 14,91</t>
+          <t>4,12; 14,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 27,64</t>
+          <t>14,89; 28,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,76; 43,34</t>
+          <t>26,47; 43,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 11,33</t>
+          <t>4,53; 10,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 13,51</t>
+          <t>6,16; 13,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 23,45</t>
+          <t>14,51; 23,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,77; 38,18</t>
+          <t>26,35; 37,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,82</t>
+          <t>4,96; 9,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,86</t>
+          <t>4,4; 8,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,21; 23,32</t>
+          <t>16,07; 23,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,47; 38,08</t>
+          <t>29,64; 38,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,96</t>
+          <t>5,33; 10,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,05</t>
+          <t>4,11; 8,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,56</t>
+          <t>15,38; 22,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,38; 36,06</t>
+          <t>27,42; 35,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,63</t>
+          <t>5,61; 8,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,78</t>
+          <t>4,71; 7,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 21,55</t>
+          <t>16,85; 21,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,89; 36,03</t>
+          <t>29,58; 35,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>29,36%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>2,8; 11,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>1,86; 11,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,9</t>
+          <t>9,78; 25,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,71</t>
+          <t>21,57; 40,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,45</t>
+          <t>0,97; 8,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>1,85; 10,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,29</t>
+          <t>14,54; 31,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,33</t>
+          <t>17,64; 40,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,72</t>
+          <t>2,84; 9,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>2,71; 9,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,03</t>
+          <t>14,01; 25,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 35,06</t>
+          <t>21,54; 37,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35,64%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>5,19%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>25,88%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>33,95%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,15%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>35,8%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>39,78%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,14</t>
+          <t>4,61; 12,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 12,95</t>
+          <t>1,71; 7,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 36,01</t>
+          <t>14,03; 26,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,59; 45,59</t>
+          <t>27,83; 42,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,91</t>
+          <t>4,23; 12,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 13,0</t>
+          <t>3,45; 11,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 29,41</t>
+          <t>13,48; 25,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 47,07</t>
+          <t>35,81; 49,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,67</t>
+          <t>5,34; 10,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,48</t>
+          <t>3,13; 7,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 28,78</t>
+          <t>15,63; 24,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,99; 42,88</t>
+          <t>34,91; 45,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,22</t>
+          <t>2,71; 11,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,83</t>
+          <t>2,44; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 26,13</t>
+          <t>10,94; 24,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,74; 52,22</t>
+          <t>13,33; 29,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 12,99</t>
+          <t>3,73; 12,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,7</t>
+          <t>0,76; 7,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 27,21</t>
+          <t>13,84; 29,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 45,86</t>
+          <t>13,09; 31,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,44</t>
+          <t>4,17; 10,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,88</t>
+          <t>2,17; 7,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,49; 24,13</t>
+          <t>14,37; 24,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,45; 46,67</t>
+          <t>14,88; 27,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>30,69%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 12,64</t>
+          <t>3,89; 13,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,79</t>
+          <t>4,04; 14,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 29,05</t>
+          <t>14,77; 28,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 32,39</t>
+          <t>25,51; 41,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 12,4</t>
+          <t>3,55; 12,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,72</t>
+          <t>5,5; 16,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 25,07</t>
+          <t>10,49; 23,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,4; 28,12</t>
+          <t>21,22; 37,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,57</t>
+          <t>4,72; 11,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,56</t>
+          <t>6,11; 13,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,75</t>
+          <t>14,32; 23,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 27,99</t>
+          <t>25,4; 36,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>30,69%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,52</t>
+          <t>5,47; 9,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 17,58</t>
+          <t>4,02; 8,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,62; 23,94</t>
+          <t>15,77; 22,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,08; 39,33</t>
+          <t>25,58; 33,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,09</t>
+          <t>4,79; 9,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 14,0</t>
+          <t>4,56; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,89; 28,14</t>
+          <t>15,92; 23,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,47; 43,24</t>
+          <t>27,22; 35,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,82</t>
+          <t>5,61; 8,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,43</t>
+          <t>4,69; 7,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 23,51</t>
+          <t>16,83; 21,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,35; 37,74</t>
+          <t>27,74; 33,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>33,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>31,47%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,26%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>32,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 9,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 8,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,07; 23,15</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>29,64; 38,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 10,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 8,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,38; 22,15</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>27,42; 35,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 8,62</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 7,68</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>16,85; 21,92</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>29,58; 35,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
